--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H2">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I2">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J2">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2299333333333333</v>
+        <v>1.257301333333333</v>
       </c>
       <c r="N2">
-        <v>0.6898</v>
+        <v>3.771904</v>
       </c>
       <c r="O2">
-        <v>0.07986766375042015</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="P2">
-        <v>0.07986766375042015</v>
+        <v>0.5503138561234042</v>
       </c>
       <c r="Q2">
-        <v>0.6644742229333334</v>
+        <v>2.836986044245334</v>
       </c>
       <c r="R2">
-        <v>5.980268006400001</v>
+        <v>25.532874398208</v>
       </c>
       <c r="S2">
-        <v>0.005058647370999854</v>
+        <v>0.04587387521240822</v>
       </c>
       <c r="T2">
-        <v>0.005058647370999855</v>
+        <v>0.04587387521240823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H3">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I3">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J3">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.257301333333333</v>
+        <v>0.364727</v>
       </c>
       <c r="N3">
-        <v>3.771904</v>
+        <v>1.094181</v>
       </c>
       <c r="O3">
-        <v>0.4367253702100098</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="P3">
-        <v>0.4367253702100098</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="Q3">
-        <v>3.633419801941334</v>
+        <v>0.822973285343</v>
       </c>
       <c r="R3">
-        <v>32.70077821747201</v>
+        <v>7.406759568086999</v>
       </c>
       <c r="S3">
-        <v>0.0276612529041227</v>
+        <v>0.01330742316182703</v>
       </c>
       <c r="T3">
-        <v>0.0276612529041227</v>
+        <v>0.01330742316182703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H4">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I4">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J4">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.35038</v>
+        <v>0.3637273333333333</v>
       </c>
       <c r="N4">
-        <v>1.05114</v>
+        <v>1.091182</v>
       </c>
       <c r="O4">
-        <v>0.1217049812621291</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="P4">
-        <v>0.1217049812621291</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="Q4">
-        <v>1.01254774528</v>
+        <v>0.8207176284793334</v>
       </c>
       <c r="R4">
-        <v>9.112929707520001</v>
+        <v>7.386458656314001</v>
       </c>
       <c r="S4">
-        <v>0.007708533774358925</v>
+        <v>0.01327094934071122</v>
       </c>
       <c r="T4">
-        <v>0.007708533774358927</v>
+        <v>0.01327094934071123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H5">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I5">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J5">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.303624</v>
+        <v>0.298943</v>
       </c>
       <c r="N5">
-        <v>0.910872</v>
+        <v>0.896829</v>
       </c>
       <c r="O5">
-        <v>0.105464219506629</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="P5">
-        <v>0.105464219506629</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="Q5">
-        <v>0.8774296381440001</v>
+        <v>0.6745376756870001</v>
       </c>
       <c r="R5">
-        <v>7.896866743296002</v>
+        <v>6.070839081183</v>
       </c>
       <c r="S5">
-        <v>0.006679878585267294</v>
+        <v>0.01090722924890688</v>
       </c>
       <c r="T5">
-        <v>0.006679878585267295</v>
+        <v>0.01090722924890688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.889856</v>
+        <v>1.417397666666667</v>
       </c>
       <c r="H6">
-        <v>8.669568000000002</v>
+        <v>4.252193</v>
       </c>
       <c r="I6">
-        <v>0.06333786583275691</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J6">
-        <v>0.06333786583275693</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7376903333333332</v>
+        <v>1.257301333333333</v>
       </c>
       <c r="N6">
-        <v>2.213071</v>
+        <v>3.771904</v>
       </c>
       <c r="O6">
-        <v>0.2562377652708119</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="P6">
-        <v>0.2562377652708119</v>
+        <v>0.5503138561234042</v>
       </c>
       <c r="Q6">
-        <v>2.131818835925333</v>
+        <v>1.782095976163556</v>
       </c>
       <c r="R6">
-        <v>19.186369523328</v>
+        <v>16.038863785472</v>
       </c>
       <c r="S6">
-        <v>0.01622955319800815</v>
+        <v>0.0288163731340485</v>
       </c>
       <c r="T6">
-        <v>0.01622955319800815</v>
+        <v>0.02881637313404851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,40 +856,40 @@
         <v>4.252193</v>
       </c>
       <c r="I7">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J7">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2299333333333333</v>
+        <v>0.364727</v>
       </c>
       <c r="N7">
-        <v>0.6898</v>
+        <v>1.094181</v>
       </c>
       <c r="O7">
-        <v>0.07986766375042015</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="P7">
-        <v>0.07986766375042015</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="Q7">
-        <v>0.3259069701555556</v>
+        <v>0.5169631987703334</v>
       </c>
       <c r="R7">
-        <v>2.9331627314</v>
+        <v>4.652668788932999</v>
       </c>
       <c r="S7">
-        <v>0.002481132271000583</v>
+        <v>0.008359260461609395</v>
       </c>
       <c r="T7">
-        <v>0.002481132271000583</v>
+        <v>0.008359260461609397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,10 +918,10 @@
         <v>4.252193</v>
       </c>
       <c r="I8">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J8">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.257301333333333</v>
+        <v>0.3637273333333333</v>
       </c>
       <c r="N8">
-        <v>3.771904</v>
+        <v>1.091182</v>
       </c>
       <c r="O8">
-        <v>0.4367253702100098</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="P8">
-        <v>0.4367253702100098</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="Q8">
-        <v>1.782095976163556</v>
+        <v>0.5155462735695556</v>
       </c>
       <c r="R8">
-        <v>16.038863785472</v>
+        <v>4.639916462126001</v>
       </c>
       <c r="S8">
-        <v>0.01356711037621946</v>
+        <v>0.008336348875569824</v>
       </c>
       <c r="T8">
-        <v>0.01356711037621946</v>
+        <v>0.008336348875569825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,72 +980,72 @@
         <v>4.252193</v>
       </c>
       <c r="I9">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J9">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.35038</v>
+        <v>0.298943</v>
       </c>
       <c r="N9">
-        <v>1.05114</v>
+        <v>0.896829</v>
       </c>
       <c r="O9">
-        <v>0.1217049812621291</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="P9">
-        <v>0.1217049812621291</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="Q9">
-        <v>0.4966277944466667</v>
+        <v>0.4237211106663334</v>
       </c>
       <c r="R9">
-        <v>4.46965015002</v>
+        <v>3.813489995997</v>
       </c>
       <c r="S9">
-        <v>0.003780831219686217</v>
+        <v>0.006851542112799157</v>
       </c>
       <c r="T9">
-        <v>0.003780831219686218</v>
+        <v>0.006851542112799158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.417397666666667</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H10">
-        <v>4.252193</v>
+        <v>6.422944</v>
       </c>
       <c r="I10">
-        <v>0.03106554210417268</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J10">
-        <v>0.03106554210417268</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.303624</v>
+        <v>1.257301333333333</v>
       </c>
       <c r="N10">
-        <v>0.910872</v>
+        <v>3.771904</v>
       </c>
       <c r="O10">
-        <v>0.105464219506629</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="P10">
-        <v>0.105464219506629</v>
+        <v>0.5503138561234042</v>
       </c>
       <c r="Q10">
-        <v>0.430355949144</v>
+        <v>2.691858685041778</v>
       </c>
       <c r="R10">
-        <v>3.873203542296</v>
+        <v>24.226728165376</v>
       </c>
       <c r="S10">
-        <v>0.003276303151566893</v>
+        <v>0.04352717548876497</v>
       </c>
       <c r="T10">
-        <v>0.003276303151566894</v>
+        <v>0.043527175488765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.417397666666667</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H11">
-        <v>4.252193</v>
+        <v>6.422944</v>
       </c>
       <c r="I11">
-        <v>0.03106554210417268</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J11">
-        <v>0.03106554210417268</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7376903333333332</v>
+        <v>0.364727</v>
       </c>
       <c r="N11">
-        <v>2.213071</v>
+        <v>1.094181</v>
       </c>
       <c r="O11">
-        <v>0.2562377652708119</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="P11">
-        <v>0.2562377652708119</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="Q11">
-        <v>1.045600557189222</v>
+        <v>0.7808736987626667</v>
       </c>
       <c r="R11">
-        <v>9.410405014702999</v>
+        <v>7.027863288863999</v>
       </c>
       <c r="S11">
-        <v>0.007960165085699524</v>
+        <v>0.01262667565332319</v>
       </c>
       <c r="T11">
-        <v>0.007960165085699524</v>
+        <v>0.01262667565332319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H12">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I12">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J12">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2299333333333333</v>
+        <v>0.3637273333333333</v>
       </c>
       <c r="N12">
-        <v>0.6898</v>
+        <v>1.091182</v>
       </c>
       <c r="O12">
-        <v>0.07986766375042015</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="P12">
-        <v>0.07986766375042015</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="Q12">
-        <v>0.2017157613777778</v>
+        <v>0.7787334310897779</v>
       </c>
       <c r="R12">
-        <v>1.8154418524</v>
+        <v>7.008600879808001</v>
       </c>
       <c r="S12">
-        <v>0.001535663643170861</v>
+        <v>0.01259206766773002</v>
       </c>
       <c r="T12">
-        <v>0.001535663643170861</v>
+        <v>0.01259206766773003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H13">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I13">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J13">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.257301333333333</v>
+        <v>0.298943</v>
       </c>
       <c r="N13">
-        <v>3.771904</v>
+        <v>0.896829</v>
       </c>
       <c r="O13">
-        <v>0.4367253702100098</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="P13">
-        <v>0.4367253702100098</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="Q13">
-        <v>1.103004475505778</v>
+        <v>0.6400313827306667</v>
       </c>
       <c r="R13">
-        <v>9.927040279552001</v>
+        <v>5.760282444576</v>
       </c>
       <c r="S13">
-        <v>0.008397181557452513</v>
+        <v>0.0103492647921086</v>
       </c>
       <c r="T13">
-        <v>0.008397181557452513</v>
+        <v>0.01034926479210861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8772793333333334</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H14">
-        <v>2.631838</v>
+        <v>60.387388</v>
       </c>
       <c r="I14">
-        <v>0.01922760189868183</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J14">
-        <v>0.01922760189868184</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.35038</v>
+        <v>1.257301333333333</v>
       </c>
       <c r="N14">
-        <v>1.05114</v>
+        <v>3.771904</v>
       </c>
       <c r="O14">
-        <v>0.1217049812621291</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="P14">
-        <v>0.1217049812621291</v>
+        <v>0.5503138561234042</v>
       </c>
       <c r="Q14">
-        <v>0.3073811328133333</v>
+        <v>25.30838114963911</v>
       </c>
       <c r="R14">
-        <v>2.76643019532</v>
+        <v>227.775430346752</v>
       </c>
       <c r="S14">
-        <v>0.00234009492879475</v>
+        <v>0.4092348360477907</v>
       </c>
       <c r="T14">
-        <v>0.00234009492879475</v>
+        <v>0.4092348360477908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.12912933333333</v>
+      </c>
+      <c r="H15">
+        <v>60.387388</v>
+      </c>
+      <c r="I15">
+        <v>0.7436389825445764</v>
+      </c>
+      <c r="J15">
+        <v>0.7436389825445765</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G15">
-        <v>0.8772793333333334</v>
-      </c>
-      <c r="H15">
-        <v>2.631838</v>
-      </c>
-      <c r="I15">
-        <v>0.01922760189868183</v>
-      </c>
-      <c r="J15">
-        <v>0.01922760189868184</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.303624</v>
+        <v>0.364727</v>
       </c>
       <c r="N15">
-        <v>0.910872</v>
+        <v>1.094181</v>
       </c>
       <c r="O15">
-        <v>0.105464219506629</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="P15">
-        <v>0.105464219506629</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="Q15">
-        <v>0.266363060304</v>
+        <v>7.341636954358667</v>
       </c>
       <c r="R15">
-        <v>2.397267542736</v>
+        <v>66.07473258922799</v>
       </c>
       <c r="S15">
-        <v>0.002027824027228658</v>
+        <v>0.1187137801337488</v>
       </c>
       <c r="T15">
-        <v>0.002027824027228658</v>
+        <v>0.1187137801337488</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8772793333333334</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H16">
-        <v>2.631838</v>
+        <v>60.387388</v>
       </c>
       <c r="I16">
-        <v>0.01922760189868183</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J16">
-        <v>0.01922760189868184</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7376903333333332</v>
+        <v>0.3637273333333333</v>
       </c>
       <c r="N16">
-        <v>2.213071</v>
+        <v>1.091182</v>
       </c>
       <c r="O16">
-        <v>0.2562377652708119</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="P16">
-        <v>0.2562377652708119</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="Q16">
-        <v>0.6471604838331111</v>
+        <v>7.321514534735112</v>
       </c>
       <c r="R16">
-        <v>5.824444354498</v>
+        <v>65.89363081261601</v>
       </c>
       <c r="S16">
-        <v>0.004926837742035054</v>
+        <v>0.1183884019498641</v>
       </c>
       <c r="T16">
-        <v>0.004926837742035055</v>
+        <v>0.1183884019498642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H17">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I17">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J17">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,33 +1488,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2299333333333333</v>
+        <v>0.298943</v>
       </c>
       <c r="N17">
-        <v>0.6898</v>
+        <v>0.896829</v>
       </c>
       <c r="O17">
-        <v>0.07986766375042015</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="P17">
-        <v>0.07986766375042015</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="Q17">
-        <v>9.162485710355554</v>
+        <v>6.017462310294667</v>
       </c>
       <c r="R17">
-        <v>82.46237139319999</v>
+        <v>54.157160792652</v>
       </c>
       <c r="S17">
-        <v>0.06975407420005234</v>
+        <v>0.09730196441317279</v>
       </c>
       <c r="T17">
-        <v>0.06975407420005235</v>
+        <v>0.09730196441317281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.84844466666667</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H18">
-        <v>119.545334</v>
+        <v>3.373496</v>
       </c>
       <c r="I18">
-        <v>0.8733706599710749</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J18">
-        <v>0.873370659971075</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>3.771904</v>
       </c>
       <c r="O18">
-        <v>0.4367253702100098</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="P18">
-        <v>0.4367253702100098</v>
+        <v>0.5503138561234042</v>
       </c>
       <c r="Q18">
-        <v>50.10150261065956</v>
+        <v>1.413833672931556</v>
       </c>
       <c r="R18">
-        <v>450.913523495936</v>
+        <v>12.724503056384</v>
       </c>
       <c r="S18">
-        <v>0.3814231248064283</v>
+        <v>0.02286159624039175</v>
       </c>
       <c r="T18">
-        <v>0.3814231248064284</v>
+        <v>0.02286159624039175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.84844466666667</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H19">
-        <v>119.545334</v>
+        <v>3.373496</v>
       </c>
       <c r="I19">
-        <v>0.8733706599710749</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J19">
-        <v>0.873370659971075</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.35038</v>
+        <v>0.364727</v>
       </c>
       <c r="N19">
-        <v>1.05114</v>
+        <v>1.094181</v>
       </c>
       <c r="O19">
-        <v>0.1217049812621291</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="P19">
-        <v>0.1217049812621291</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="Q19">
-        <v>13.96209804230667</v>
+        <v>0.4101350251973333</v>
       </c>
       <c r="R19">
-        <v>125.65888238076</v>
+        <v>3.691215226776</v>
       </c>
       <c r="S19">
-        <v>0.106293559806673</v>
+        <v>0.006631856016459613</v>
       </c>
       <c r="T19">
-        <v>0.106293559806673</v>
+        <v>0.006631856016459613</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.84844466666667</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H20">
-        <v>119.545334</v>
+        <v>3.373496</v>
       </c>
       <c r="I20">
-        <v>0.8733706599710749</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J20">
-        <v>0.873370659971075</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.303624</v>
+        <v>0.3637273333333333</v>
       </c>
       <c r="N20">
-        <v>0.910872</v>
+        <v>1.091182</v>
       </c>
       <c r="O20">
-        <v>0.105464219506629</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="P20">
-        <v>0.105464219506629</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="Q20">
-        <v>12.098944163472</v>
+        <v>0.4090109013635556</v>
       </c>
       <c r="R20">
-        <v>108.890497471248</v>
+        <v>3.681098112272001</v>
       </c>
       <c r="S20">
-        <v>0.0921093549938389</v>
+        <v>0.006613679009005305</v>
       </c>
       <c r="T20">
-        <v>0.09210935499383892</v>
+        <v>0.006613679009005307</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.84844466666667</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H21">
-        <v>119.545334</v>
+        <v>3.373496</v>
       </c>
       <c r="I21">
-        <v>0.8733706599710749</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J21">
-        <v>0.873370659971075</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.7376903333333332</v>
+        <v>0.298943</v>
       </c>
       <c r="N21">
-        <v>2.213071</v>
+        <v>0.896829</v>
       </c>
       <c r="O21">
-        <v>0.2562377652708119</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="P21">
-        <v>0.2562377652708119</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="Q21">
-        <v>29.39581242896822</v>
+        <v>0.3361610049093334</v>
       </c>
       <c r="R21">
-        <v>264.562311860714</v>
+        <v>3.025449044184</v>
       </c>
       <c r="S21">
-        <v>0.2237905461640824</v>
+        <v>0.005435701039759838</v>
       </c>
       <c r="T21">
-        <v>0.2237905461640824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.5930623333333332</v>
-      </c>
-      <c r="H22">
-        <v>1.779187</v>
-      </c>
-      <c r="I22">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="J22">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.2299333333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.6898</v>
-      </c>
-      <c r="O22">
-        <v>0.07986766375042015</v>
-      </c>
-      <c r="P22">
-        <v>0.07986766375042015</v>
-      </c>
-      <c r="Q22">
-        <v>0.1363647991777777</v>
-      </c>
-      <c r="R22">
-        <v>1.2272831926</v>
-      </c>
-      <c r="S22">
-        <v>0.001038146265196503</v>
-      </c>
-      <c r="T22">
-        <v>0.001038146265196503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.5930623333333332</v>
-      </c>
-      <c r="H23">
-        <v>1.779187</v>
-      </c>
-      <c r="I23">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="J23">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.257301333333333</v>
-      </c>
-      <c r="N23">
-        <v>3.771904</v>
-      </c>
-      <c r="O23">
-        <v>0.4367253702100098</v>
-      </c>
-      <c r="P23">
-        <v>0.4367253702100098</v>
-      </c>
-      <c r="Q23">
-        <v>0.7456580624497777</v>
-      </c>
-      <c r="R23">
-        <v>6.710922562047999</v>
-      </c>
-      <c r="S23">
-        <v>0.005676700565786823</v>
-      </c>
-      <c r="T23">
-        <v>0.005676700565786824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.5930623333333332</v>
-      </c>
-      <c r="H24">
-        <v>1.779187</v>
-      </c>
-      <c r="I24">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="J24">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.35038</v>
-      </c>
-      <c r="N24">
-        <v>1.05114</v>
-      </c>
-      <c r="O24">
-        <v>0.1217049812621291</v>
-      </c>
-      <c r="P24">
-        <v>0.1217049812621291</v>
-      </c>
-      <c r="Q24">
-        <v>0.2077971803533333</v>
-      </c>
-      <c r="R24">
-        <v>1.87017462318</v>
-      </c>
-      <c r="S24">
-        <v>0.001581961532616196</v>
-      </c>
-      <c r="T24">
-        <v>0.001581961532616196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.5930623333333332</v>
-      </c>
-      <c r="H25">
-        <v>1.779187</v>
-      </c>
-      <c r="I25">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="J25">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.303624</v>
-      </c>
-      <c r="N25">
-        <v>0.910872</v>
-      </c>
-      <c r="O25">
-        <v>0.105464219506629</v>
-      </c>
-      <c r="P25">
-        <v>0.105464219506629</v>
-      </c>
-      <c r="Q25">
-        <v>0.180067957896</v>
-      </c>
-      <c r="R25">
-        <v>1.620611621064</v>
-      </c>
-      <c r="S25">
-        <v>0.001370858748727267</v>
-      </c>
-      <c r="T25">
-        <v>0.001370858748727268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.5930623333333332</v>
-      </c>
-      <c r="H26">
-        <v>1.779187</v>
-      </c>
-      <c r="I26">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="J26">
-        <v>0.01299833019331358</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.7376903333333332</v>
-      </c>
-      <c r="N26">
-        <v>2.213071</v>
-      </c>
-      <c r="O26">
-        <v>0.2562377652708119</v>
-      </c>
-      <c r="P26">
-        <v>0.2562377652708119</v>
-      </c>
-      <c r="Q26">
-        <v>0.437496350364111</v>
-      </c>
-      <c r="R26">
-        <v>3.937467153276999</v>
-      </c>
-      <c r="S26">
-        <v>0.003330663080986793</v>
-      </c>
-      <c r="T26">
-        <v>0.003330663080986794</v>
+        <v>0.005435701039759838</v>
       </c>
     </row>
   </sheetData>
